--- a/teaching/traditional_assets/database/data/latvia/latvia_food_processing.xlsx
+++ b/teaching/traditional_assets/database/data/latvia/latvia_food_processing.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0067</v>
+        <v>0.0161</v>
       </c>
       <c r="E2">
-        <v>-0.241</v>
+        <v>-0.0348</v>
       </c>
       <c r="G2">
-        <v>0.05615384615384615</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="H2">
-        <v>0.05615384615384615</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="I2">
-        <v>0.02153846153846154</v>
+        <v>0.08951048951048951</v>
       </c>
       <c r="J2">
-        <v>0.02153846153846154</v>
+        <v>0.08951048951048951</v>
       </c>
       <c r="K2">
-        <v>0.035</v>
+        <v>0.109</v>
       </c>
       <c r="L2">
-        <v>0.02692307692307692</v>
+        <v>0.07622377622377623</v>
       </c>
       <c r="M2">
-        <v>0.037</v>
+        <v>0.039668</v>
       </c>
       <c r="N2">
-        <v>0.0225609756097561</v>
+        <v>0.01888952380952381</v>
       </c>
       <c r="O2">
-        <v>1.057142857142857</v>
+        <v>0.3639266055045872</v>
       </c>
       <c r="P2">
-        <v>0.037</v>
+        <v>0.039668</v>
       </c>
       <c r="Q2">
-        <v>0.0225609756097561</v>
+        <v>0.01888952380952381</v>
       </c>
       <c r="R2">
-        <v>1.057142857142857</v>
+        <v>0.3639266055045872</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.184</v>
+        <v>0.274</v>
       </c>
       <c r="V2">
-        <v>0.1121951219512195</v>
+        <v>0.1304761904761905</v>
       </c>
       <c r="W2">
-        <v>0.01955307262569832</v>
+        <v>0.06488095238095239</v>
       </c>
       <c r="X2">
-        <v>0.06069935648533321</v>
+        <v>0.05090557174178309</v>
       </c>
       <c r="Y2">
-        <v>-0.04114628385963489</v>
+        <v>0.0139753806391693</v>
       </c>
       <c r="Z2">
-        <v>0.8425145819831497</v>
+        <v>0.9558823529411764</v>
       </c>
       <c r="AA2">
-        <v>0.01814646791963707</v>
+        <v>0.08556149732620322</v>
       </c>
       <c r="AB2">
-        <v>0.06069935648533321</v>
+        <v>0.05090557174178309</v>
       </c>
       <c r="AC2">
-        <v>-0.04255288856569614</v>
+        <v>0.03465592558442013</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.184</v>
+        <v>-0.274</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.1263736263736264</v>
+        <v>-0.1500547645125958</v>
       </c>
       <c r="AK2">
-        <v>-0.1229946524064171</v>
+        <v>-0.1664641555285541</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-2.19047619047619</v>
+        <v>-1.412371134020619</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0067</v>
+        <v>0.0161</v>
       </c>
       <c r="E3">
-        <v>-0.241</v>
+        <v>-0.0348</v>
       </c>
       <c r="G3">
-        <v>0.05615384615384615</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="H3">
-        <v>0.05615384615384615</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="I3">
-        <v>0.02153846153846154</v>
+        <v>0.08951048951048951</v>
       </c>
       <c r="J3">
-        <v>0.02153846153846154</v>
+        <v>0.08951048951048951</v>
       </c>
       <c r="K3">
-        <v>0.035</v>
+        <v>0.109</v>
       </c>
       <c r="L3">
-        <v>0.02692307692307692</v>
+        <v>0.07622377622377623</v>
       </c>
       <c r="M3">
-        <v>0.037</v>
+        <v>0.039668</v>
       </c>
       <c r="N3">
-        <v>0.0225609756097561</v>
+        <v>0.01888952380952381</v>
       </c>
       <c r="O3">
-        <v>1.057142857142857</v>
+        <v>0.3639266055045872</v>
       </c>
       <c r="P3">
-        <v>0.037</v>
+        <v>0.039668</v>
       </c>
       <c r="Q3">
-        <v>0.0225609756097561</v>
+        <v>0.01888952380952381</v>
       </c>
       <c r="R3">
-        <v>1.057142857142857</v>
+        <v>0.3639266055045872</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.184</v>
+        <v>0.274</v>
       </c>
       <c r="V3">
-        <v>0.1121951219512195</v>
+        <v>0.1304761904761905</v>
       </c>
       <c r="W3">
-        <v>0.01955307262569832</v>
+        <v>0.06488095238095239</v>
       </c>
       <c r="X3">
-        <v>0.06069935648533321</v>
+        <v>0.05090557174178309</v>
       </c>
       <c r="Y3">
-        <v>-0.04114628385963489</v>
+        <v>0.0139753806391693</v>
       </c>
       <c r="Z3">
-        <v>0.8425145819831497</v>
+        <v>0.9558823529411764</v>
       </c>
       <c r="AA3">
-        <v>0.01814646791963707</v>
+        <v>0.08556149732620322</v>
       </c>
       <c r="AB3">
-        <v>0.06069935648533321</v>
+        <v>0.05090557174178309</v>
       </c>
       <c r="AC3">
-        <v>-0.04255288856569614</v>
+        <v>0.03465592558442013</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.184</v>
+        <v>-0.274</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.1263736263736264</v>
+        <v>-0.1500547645125958</v>
       </c>
       <c r="AK3">
-        <v>-0.1229946524064171</v>
+        <v>-0.1664641555285541</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-2.19047619047619</v>
+        <v>-1.412371134020619</v>
       </c>
     </row>
   </sheetData>
